--- a/XlsxToLua/bin/Debug/TestExcel/UIForm.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/UIForm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\yimoer\doc\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XlsxToLua\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B33DB4-58E5-4B9E-920A-F055D8F7CBEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87481A14-29F1-4381-B7CC-55A313AC2174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35820" yWindow="1620" windowWidth="19455" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2535" windowWidth="19380" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4361,7 +4361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
